--- a/TestCases/SlidingWallToleranceCheck/PrinterSpecific/SnapMaker-j1S/Snapmaker-J1S-SlidingWallToleranceCheck.xlsx
+++ b/TestCases/SlidingWallToleranceCheck/PrinterSpecific/SnapMaker-j1S/Snapmaker-J1S-SlidingWallToleranceCheck.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\PycharmProjects\3DPrintingQualityTesting\TestCases\SlidingWallToleranceCheck\PrinterSpecific\SnapMaker-j1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA9BA32-791D-4F5D-9480-1B25A6281D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0788400B-3A87-4509-87D4-C64D07CCAF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24810" yWindow="4080" windowWidth="13290" windowHeight="12735" xr2:uid="{B2CA6E33-C36A-4205-9F30-FEEE6E043C49}"/>
+    <workbookView xWindow="39885" yWindow="9420" windowWidth="13290" windowHeight="9180" xr2:uid="{B2CA6E33-C36A-4205-9F30-FEEE6E043C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Shape</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>OuterOBJCad (MM)</t>
+  </si>
+  <si>
+    <t>Light Press fit</t>
+  </si>
+  <si>
+    <t>Light press fit</t>
+  </si>
+  <si>
+    <t>Tight Binding</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B56BCA-6730-4F9F-9174-FF9AF5ABCF65}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +563,7 @@
         <v>9.86</v>
       </c>
       <c r="E5">
-        <f>ABS(B5-$C$2)</f>
+        <f t="shared" ref="E5:E25" si="0">ABS(B5-$C$2)</f>
         <v>0</v>
       </c>
       <c r="F5" t="s">
@@ -569,7 +578,7 @@
         <v>9.99</v>
       </c>
       <c r="E6">
-        <f>ABS(B6-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="F6" t="s">
@@ -583,8 +592,14 @@
       <c r="B7">
         <v>9.98</v>
       </c>
+      <c r="C7">
+        <v>10.01</v>
+      </c>
+      <c r="D7">
+        <v>9.89</v>
+      </c>
       <c r="E7">
-        <f>ABS(B7-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="F7" t="s">
@@ -599,7 +614,7 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="E8">
-        <f>ABS(B8-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999999361E-2</v>
       </c>
     </row>
@@ -610,8 +625,14 @@
       <c r="B9">
         <v>9.9600000000000009</v>
       </c>
+      <c r="C9">
+        <v>10.08</v>
+      </c>
+      <c r="D9">
+        <v>9.8800000000000008</v>
+      </c>
       <c r="E9">
-        <f>ABS(B9-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>3.9999999999999147E-2</v>
       </c>
       <c r="F9" t="s">
@@ -625,9 +646,18 @@
       <c r="B10">
         <v>9.9499999999999993</v>
       </c>
+      <c r="C10">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D10">
+        <v>9.8800000000000008</v>
+      </c>
       <c r="E10">
-        <f>ABS(B10-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,7 +668,7 @@
         <v>9.94</v>
       </c>
       <c r="E11">
-        <f>ABS(B11-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000497E-2</v>
       </c>
     </row>
@@ -649,9 +679,18 @@
       <c r="B12">
         <v>9.93</v>
       </c>
+      <c r="C12">
+        <v>10.01</v>
+      </c>
+      <c r="D12">
+        <v>9.89</v>
+      </c>
       <c r="E12">
-        <f>ABS(B12-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,7 +701,7 @@
         <v>9.92</v>
       </c>
       <c r="E13">
-        <f>ABS(B13-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
@@ -674,7 +713,7 @@
         <v>9.91</v>
       </c>
       <c r="E14">
-        <f>ABS(B14-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
     </row>
@@ -685,9 +724,18 @@
       <c r="B15">
         <v>9.9</v>
       </c>
+      <c r="C15">
+        <v>9.94</v>
+      </c>
+      <c r="D15">
+        <v>9.86</v>
+      </c>
       <c r="E15">
-        <f>ABS(B15-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,7 +746,7 @@
         <v>9.89</v>
       </c>
       <c r="E16">
-        <f>ABS(B16-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.10999999999999943</v>
       </c>
     </row>
@@ -716,11 +764,11 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="E17">
-        <f>ABS(B17-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,7 +779,7 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="E18">
-        <f>ABS(B18-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.13000000000000078</v>
       </c>
     </row>
@@ -743,7 +791,7 @@
         <v>9.86</v>
       </c>
       <c r="E19">
-        <f>ABS(B19-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000057</v>
       </c>
     </row>
@@ -754,9 +802,18 @@
       <c r="B20">
         <v>9.85</v>
       </c>
+      <c r="C20">
+        <v>9.93</v>
+      </c>
+      <c r="D20">
+        <v>9.86</v>
+      </c>
       <c r="E20">
-        <f>ABS(B20-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.15000000000000036</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,7 +824,7 @@
         <v>9.84</v>
       </c>
       <c r="E21">
-        <f>ABS(B21-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.16000000000000014</v>
       </c>
     </row>
@@ -778,9 +835,18 @@
       <c r="B22">
         <v>9.83</v>
       </c>
+      <c r="C22">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D22">
+        <v>9.8699999999999992</v>
+      </c>
       <c r="E22">
-        <f>ABS(B22-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,7 +857,7 @@
         <v>9.82</v>
       </c>
       <c r="E23">
-        <f>ABS(B23-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.17999999999999972</v>
       </c>
     </row>
@@ -803,8 +869,20 @@
         <v>9.81</v>
       </c>
       <c r="E24">
-        <f>ABS(B24-$C$2)</f>
+        <f t="shared" si="0"/>
         <v>0.1899999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases/SlidingWallToleranceCheck/PrinterSpecific/SnapMaker-j1S/Snapmaker-J1S-SlidingWallToleranceCheck.xlsx
+++ b/TestCases/SlidingWallToleranceCheck/PrinterSpecific/SnapMaker-j1S/Snapmaker-J1S-SlidingWallToleranceCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\PycharmProjects\3DPrintingQualityTesting\TestCases\SlidingWallToleranceCheck\PrinterSpecific\SnapMaker-j1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0788400B-3A87-4509-87D4-C64D07CCAF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ECF8AE-FBDA-48FD-B4FD-5EA9AD08C822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39885" yWindow="9420" windowWidth="13290" windowHeight="9180" xr2:uid="{B2CA6E33-C36A-4205-9F30-FEEE6E043C49}"/>
+    <workbookView xWindow="53565" yWindow="9570" windowWidth="13290" windowHeight="9180" xr2:uid="{B2CA6E33-C36A-4205-9F30-FEEE6E043C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Shape</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Tight Binding</t>
+  </si>
+  <si>
+    <t>Sliding with light pressure, no wiggle, some binding</t>
+  </si>
+  <si>
+    <t>Smooth Slide., Held by gravity</t>
+  </si>
+  <si>
+    <t>Very smooth, almost falling with gravity</t>
+  </si>
+  <si>
+    <t>falls with gravity</t>
   </si>
 </sst>
 </file>
@@ -117,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B56BCA-6730-4F9F-9174-FF9AF5ABCF65}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +582,7 @@
         <v>9.86</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E25" si="0">ABS(B5-$C$2)</f>
+        <f t="shared" ref="E5:E35" si="0">ABS(B5-$C$2)</f>
         <v>0</v>
       </c>
       <c r="F5" t="s">
@@ -880,9 +899,174 @@
       <c r="B25">
         <v>9.8000000000000007</v>
       </c>
+      <c r="C25">
+        <v>9.84</v>
+      </c>
+      <c r="D25">
+        <v>9.8699999999999992</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.22000000000000064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>9.77</v>
+      </c>
+      <c r="C28">
+        <v>9.84</v>
+      </c>
+      <c r="D28">
+        <v>9.89</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>9.76</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>9.75</v>
+      </c>
+      <c r="C30">
+        <v>9.81</v>
+      </c>
+      <c r="D30">
+        <v>9.86</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>9.74</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.25999999999999979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>9.73</v>
+      </c>
+      <c r="C32">
+        <v>9.76</v>
+      </c>
+      <c r="D32">
+        <v>9.86</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999936</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C35">
+        <v>9.75</v>
+      </c>
+      <c r="D35">
+        <v>9.89</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
